--- a/server/DATA/default_details/sales_details.xlsx
+++ b/server/DATA/default_details/sales_details.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jovan\Downloads\grp_quotation_generator\server\default_details\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jovan\Downloads\grp_quotation_generator\server\DATA\default_details\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -182,6 +182,24 @@
   </si>
   <si>
     <t>leyon</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>signs&amp;seals/JD_sign</t>
+  </si>
+  <si>
+    <t>Sales Manager</t>
+  </si>
+  <si>
+    <t>+971 50 123 4567</t>
+  </si>
+  <si>
+    <t>john</t>
   </si>
 </sst>
 </file>
@@ -577,13 +595,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="37.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -752,7 +779,31 @@
         <v>43</v>
       </c>
     </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>